--- a/municipal/სასტუმროები/სტუმრები/ქვემო ქართლი/თეთრიწყარო.xlsx
+++ b/municipal/სასტუმროები/სტუმრები/ქვემო ქართლი/თეთრიწყარო.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\4 სტუმრები\ქვემო ქართლი\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\სასტუმროები\სტუმრები\ქვემო ქართლი\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="16">
   <si>
     <t>(კაცი)</t>
   </si>
@@ -56,9 +56,6 @@
     <t>მათ შორის: ევროკავშირის ქვეყნებიდან</t>
   </si>
   <si>
-    <t>სასტუმროებსა და სასტუმროს ტიპის დაწესებულებებში სტუმართა რაოდენობა ჩამოსვლის ადგილისა და მიზნის მიხედვით თეთრიწყაროს მუნიციპალიტეტი</t>
-  </si>
-  <si>
     <t>საქართველოდან</t>
   </si>
   <si>
@@ -70,12 +67,60 @@
   <si>
     <t xml:space="preserve">                       სხვა ქვეყნებიდან</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>საქართველოს კანონმდებლობის შესაბამისად დარეგისტრირებული იურიდიული პირები და ინდივიდუალური მეწარმეები(ადგილობრივი ერთეულებისა და ფილიალების ჩათვლით).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>სასტუმროებსა და სასტუმროს ტიპის დაწესებულებებში</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> სტუმართა რაოდენობა ჩამოსვლის ადგილისა და მიზნის მიხედვით თეთრიწყაროს მუნიციპალიტეტში</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +202,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -228,7 +287,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -307,12 +366,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -322,8 +375,17 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -607,7 +669,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM87"/>
+  <dimension ref="A1:BM88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -625,7 +687,7 @@
   <sheetData>
     <row r="1" spans="1:65" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -692,66 +754,66 @@
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="38"/>
-      <c r="AL2" s="38"/>
-      <c r="AM2" s="38"/>
-      <c r="AN2" s="38"/>
-      <c r="AO2" s="38"/>
-      <c r="AP2" s="38"/>
-      <c r="AQ2" s="38"/>
-      <c r="AR2" s="38"/>
-      <c r="AS2" s="38"/>
-      <c r="AT2" s="38"/>
-      <c r="AU2" s="38"/>
-      <c r="AV2" s="38"/>
-      <c r="AW2" s="38"/>
-      <c r="AX2" s="38"/>
-      <c r="AY2" s="38"/>
-      <c r="AZ2" s="38"/>
-      <c r="BA2" s="38"/>
-      <c r="BB2" s="38"/>
-      <c r="BC2" s="38"/>
-      <c r="BD2" s="38"/>
-      <c r="BE2" s="38"/>
-      <c r="BF2" s="38"/>
-      <c r="BG2" s="38"/>
-      <c r="BH2" s="38"/>
-      <c r="BI2" s="38"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="36"/>
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="36"/>
+      <c r="AK2" s="36"/>
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="36"/>
+      <c r="AO2" s="36"/>
+      <c r="AP2" s="36"/>
+      <c r="AQ2" s="36"/>
+      <c r="AR2" s="36"/>
+      <c r="AS2" s="36"/>
+      <c r="AT2" s="36"/>
+      <c r="AU2" s="36"/>
+      <c r="AV2" s="36"/>
+      <c r="AW2" s="36"/>
+      <c r="AX2" s="36"/>
+      <c r="AY2" s="36"/>
+      <c r="AZ2" s="36"/>
+      <c r="BA2" s="36"/>
+      <c r="BB2" s="36"/>
+      <c r="BC2" s="36"/>
+      <c r="BD2" s="36"/>
+      <c r="BE2" s="36"/>
+      <c r="BF2" s="36"/>
+      <c r="BG2" s="36"/>
+      <c r="BH2" s="36"/>
+      <c r="BI2" s="36"/>
     </row>
     <row r="3" spans="1:65" s="31" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -829,14 +891,14 @@
       <c r="BI3" s="8"/>
     </row>
     <row r="4" spans="1:65" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="39">
+      <c r="A4" s="38">
         <v>2010</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
@@ -915,7 +977,7 @@
     </row>
     <row r="6" spans="1:65" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>8</v>
@@ -935,7 +997,7 @@
     </row>
     <row r="7" spans="1:65" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>8</v>
@@ -975,7 +1037,7 @@
     </row>
     <row r="9" spans="1:65" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>8</v>
@@ -995,7 +1057,7 @@
     </row>
     <row r="10" spans="1:65" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>8</v>
@@ -1014,14 +1076,14 @@
       </c>
     </row>
     <row r="11" spans="1:65" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="36">
+      <c r="A11" s="34">
         <v>2011</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
@@ -1109,7 +1171,7 @@
     </row>
     <row r="13" spans="1:65" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>8</v>
@@ -1138,7 +1200,7 @@
     </row>
     <row r="14" spans="1:65" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>8</v>
@@ -1196,7 +1258,7 @@
     </row>
     <row r="16" spans="1:65" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>8</v>
@@ -1225,7 +1287,7 @@
     </row>
     <row r="17" spans="1:65" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>8</v>
@@ -1253,14 +1315,14 @@
       <c r="BM17" s="26"/>
     </row>
     <row r="18" spans="1:65" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="36">
+      <c r="A18" s="34">
         <v>2012</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1339,7 +1401,7 @@
     </row>
     <row r="20" spans="1:65" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>8</v>
@@ -1359,7 +1421,7 @@
     </row>
     <row r="21" spans="1:65" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>8</v>
@@ -1399,7 +1461,7 @@
     </row>
     <row r="23" spans="1:65" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>8</v>
@@ -1419,7 +1481,7 @@
     </row>
     <row r="24" spans="1:65" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B24" s="16" t="s">
         <v>8</v>
@@ -1438,14 +1500,14 @@
       </c>
     </row>
     <row r="25" spans="1:65" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="36">
+      <c r="A25" s="34">
         <v>2013</v>
       </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
       <c r="G25" s="19"/>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1529,7 +1591,7 @@
     </row>
     <row r="27" spans="1:65" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B27" s="17" t="s">
         <v>8</v>
@@ -1554,7 +1616,7 @@
     </row>
     <row r="28" spans="1:65" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B28" s="17" t="s">
         <v>8</v>
@@ -1604,7 +1666,7 @@
     </row>
     <row r="30" spans="1:65" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B30" s="17" t="s">
         <v>8</v>
@@ -1629,7 +1691,7 @@
     </row>
     <row r="31" spans="1:65" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B31" s="21" t="s">
         <v>8</v>
@@ -1653,14 +1715,14 @@
       <c r="BI31" s="23"/>
     </row>
     <row r="32" spans="1:65" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="36">
+      <c r="A32" s="34">
         <v>2014</v>
       </c>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
       <c r="AU32" s="19"/>
       <c r="AV32" s="19"/>
       <c r="AW32" s="19"/>
@@ -1699,7 +1761,7 @@
     </row>
     <row r="34" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B34" s="17">
         <v>50</v>
@@ -1719,7 +1781,7 @@
     </row>
     <row r="35" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B35" s="17">
         <v>26</v>
@@ -1759,7 +1821,7 @@
     </row>
     <row r="37" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B37" s="17" t="s">
         <v>8</v>
@@ -1779,7 +1841,7 @@
     </row>
     <row r="38" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B38" s="21" t="s">
         <v>8</v>
@@ -1798,14 +1860,14 @@
       </c>
     </row>
     <row r="39" spans="1:61" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="36">
+      <c r="A39" s="34">
         <v>2015</v>
       </c>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
       <c r="G39" s="19"/>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1909,7 +1971,7 @@
     </row>
     <row r="41" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B41" s="17">
         <v>50</v>
@@ -1929,7 +1991,7 @@
     </row>
     <row r="42" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B42" s="17" t="s">
         <v>8</v>
@@ -1969,7 +2031,7 @@
     </row>
     <row r="44" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B44" s="17" t="s">
         <v>8</v>
@@ -1989,7 +2051,7 @@
     </row>
     <row r="45" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B45" s="21" t="s">
         <v>8</v>
@@ -2008,14 +2070,14 @@
       </c>
     </row>
     <row r="46" spans="1:61" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="36">
+      <c r="A46" s="34">
         <v>2016</v>
       </c>
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
       <c r="G46" s="19"/>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -2094,7 +2156,7 @@
     </row>
     <row r="48" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B48" s="17">
         <v>67</v>
@@ -2114,7 +2176,7 @@
     </row>
     <row r="49" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B49" s="13" t="s">
         <v>8</v>
@@ -2154,7 +2216,7 @@
     </row>
     <row r="51" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B51" s="13" t="s">
         <v>8</v>
@@ -2174,7 +2236,7 @@
     </row>
     <row r="52" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B52" s="16" t="s">
         <v>8</v>
@@ -2193,14 +2255,14 @@
       </c>
     </row>
     <row r="53" spans="1:61" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="36">
+      <c r="A53" s="34">
         <v>2017</v>
       </c>
-      <c r="B53" s="37"/>
-      <c r="C53" s="37"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="37"/>
-      <c r="F53" s="37"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
       <c r="G53" s="19"/>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2279,7 +2341,7 @@
     </row>
     <row r="55" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B55" s="17">
         <v>141</v>
@@ -2299,7 +2361,7 @@
     </row>
     <row r="56" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B56" s="17" t="s">
         <v>8</v>
@@ -2339,7 +2401,7 @@
     </row>
     <row r="58" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B58" s="17" t="s">
         <v>8</v>
@@ -2359,7 +2421,7 @@
     </row>
     <row r="59" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B59" s="21" t="s">
         <v>8</v>
@@ -2378,14 +2440,14 @@
       </c>
     </row>
     <row r="60" spans="1:61" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="36">
+      <c r="A60" s="34">
         <v>2018</v>
       </c>
-      <c r="B60" s="36"/>
-      <c r="C60" s="36"/>
-      <c r="D60" s="36"/>
-      <c r="E60" s="36"/>
-      <c r="F60" s="36"/>
+      <c r="B60" s="34"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="34"/>
       <c r="G60" s="19"/>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2464,7 +2526,7 @@
     </row>
     <row r="62" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B62" s="17">
         <v>99</v>
@@ -2484,7 +2546,7 @@
     </row>
     <row r="63" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B63" s="17">
         <v>108</v>
@@ -2524,7 +2586,7 @@
     </row>
     <row r="65" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B65" s="17">
         <v>31</v>
@@ -2544,7 +2606,7 @@
     </row>
     <row r="66" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B66" s="21">
         <v>19</v>
@@ -2563,14 +2625,14 @@
       </c>
     </row>
     <row r="67" spans="1:61" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="36">
+      <c r="A67" s="34">
         <v>2019</v>
       </c>
-      <c r="B67" s="37"/>
-      <c r="C67" s="37"/>
-      <c r="D67" s="37"/>
-      <c r="E67" s="37"/>
-      <c r="F67" s="37"/>
+      <c r="B67" s="35"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="35"/>
       <c r="G67" s="19"/>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2649,7 +2711,7 @@
     </row>
     <row r="69" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B69" s="17">
         <v>135</v>
@@ -2669,7 +2731,7 @@
     </row>
     <row r="70" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B70" s="17">
         <v>100</v>
@@ -2709,7 +2771,7 @@
     </row>
     <row r="72" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B72" s="17">
         <v>45</v>
@@ -2729,7 +2791,7 @@
     </row>
     <row r="73" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B73" s="21">
         <v>20</v>
@@ -2748,14 +2810,14 @@
       </c>
     </row>
     <row r="74" spans="1:61" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="36">
+      <c r="A74" s="34">
         <v>2020</v>
       </c>
-      <c r="B74" s="37"/>
-      <c r="C74" s="37"/>
-      <c r="D74" s="37"/>
-      <c r="E74" s="37"/>
-      <c r="F74" s="37"/>
+      <c r="B74" s="35"/>
+      <c r="C74" s="35"/>
+      <c r="D74" s="35"/>
+      <c r="E74" s="35"/>
+      <c r="F74" s="35"/>
       <c r="G74" s="19"/>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2834,7 +2896,7 @@
     </row>
     <row r="76" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B76" s="17" t="s">
         <v>8</v>
@@ -2854,7 +2916,7 @@
     </row>
     <row r="77" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B77" s="17" t="s">
         <v>8</v>
@@ -2894,7 +2956,7 @@
     </row>
     <row r="79" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B79" s="17" t="s">
         <v>8</v>
@@ -2914,7 +2976,7 @@
     </row>
     <row r="80" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B80" s="21" t="s">
         <v>8</v>
@@ -2933,14 +2995,14 @@
       </c>
     </row>
     <row r="81" spans="1:61" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="36">
+      <c r="A81" s="34">
         <v>2021</v>
       </c>
-      <c r="B81" s="37"/>
-      <c r="C81" s="37"/>
-      <c r="D81" s="37"/>
-      <c r="E81" s="37"/>
-      <c r="F81" s="37"/>
+      <c r="B81" s="35"/>
+      <c r="C81" s="35"/>
+      <c r="D81" s="35"/>
+      <c r="E81" s="35"/>
+      <c r="F81" s="35"/>
       <c r="G81" s="19"/>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -3019,7 +3081,7 @@
     </row>
     <row r="83" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B83" s="17">
         <v>40</v>
@@ -3039,7 +3101,7 @@
     </row>
     <row r="84" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B84" s="17" t="s">
         <v>8</v>
@@ -3079,7 +3141,7 @@
     </row>
     <row r="86" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B86" s="17" t="s">
         <v>8</v>
@@ -3099,26 +3161,37 @@
     </row>
     <row r="87" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B87" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:61" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B87" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C87" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D87" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E87" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F87" s="16" t="s">
-        <v>8</v>
-      </c>
+      <c r="B88" s="37"/>
+      <c r="C88" s="37"/>
+      <c r="D88" s="37"/>
+      <c r="E88" s="37"/>
+      <c r="F88" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="25">
+    <mergeCell ref="L2:P2"/>
     <mergeCell ref="A74:F74"/>
     <mergeCell ref="A81:F81"/>
     <mergeCell ref="A32:F32"/>
@@ -3127,6 +3200,9 @@
     <mergeCell ref="A53:F53"/>
     <mergeCell ref="A60:F60"/>
     <mergeCell ref="A67:F67"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="A88:F88"/>
     <mergeCell ref="BE2:BI2"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A11:F11"/>
@@ -3140,9 +3216,6 @@
     <mergeCell ref="AZ2:BD2"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="G2:K2"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="V2:Z2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
